--- a/Documentation/Query/Transaction.xlsx
+++ b/Documentation/Query/Transaction.xlsx
@@ -510,7 +510,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
